--- a/stock_fruta.xlsx
+++ b/stock_fruta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RicardoSaraiva\Pessoal\Educação\TokioSchool\Python e AI\AI Specialization\MOD 1\Tarefa_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7C6A72-73C6-4ACF-85D0-C1D223390607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E52158-DC0B-45DA-BD48-4A33E11D9191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{DC6FFA11-07EB-4981-92CE-8FED6D03966E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{DC6FFA11-07EB-4981-92CE-8FED6D03966E}"/>
   </bookViews>
   <sheets>
     <sheet name="stock" sheetId="1" r:id="rId1"/>
@@ -431,7 +431,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,7 +481,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
